--- a/medicine/Enfance/Prix_illustration_jeunesse/Prix_illustration_jeunesse.xlsx
+++ b/medicine/Enfance/Prix_illustration_jeunesse/Prix_illustration_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix illustration jeunesse est un prix québécois d'illustration en littérature jeunesse, créé en 1998, dans le cadre du Salon du livre de Trois-Rivières.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix illustration jeunesse est remis chaque année dans le cadre du Salon du livre de Trois-Rivières.
-Créé en 1998 par Johanne Gaudreau[1], il souligne le travail d'illustrateurs québécois dans deux catégories : album, et petit roman illustré (et, jusqu'en 2021, la catégorie Relève).
-En 2018, les bibliothèques de Trois-Rivières et des entreprises privées de la région de Trois-Rivières sont les principaux partenaires du prix[2],[3].
+Créé en 1998 par Johanne Gaudreau, il souligne le travail d'illustrateurs québécois dans deux catégories : album, et petit roman illustré (et, jusqu'en 2021, la catégorie Relève).
+En 2018, les bibliothèques de Trois-Rivières et des entreprises privées de la région de Trois-Rivières sont les principaux partenaires du prix,.
 En 2019, un Prix BD a été créé pour récompenser des œuvres graphiques qui jusqu'alors ne parvenaient pas à entrer dans les catégories susmentionnées.
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Catégorie Album
-1998 : Stéphane Poulin, Petit zizi, Les 400 coups
+          <t>Catégorie Album</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1998 : Stéphane Poulin, Petit zizi, Les 400 coups
 1999 : Stéphane Jorisch, Charlotte et l'île du destin, Les 400 coups
 2000 : Geneviève Côté, La grande aventure d'un petit mouton noir, Dominique et compagnie
 2001 : Stéphane Poulin, Vieux Thomas et la petite fée, Dominique et Compagnie
@@ -573,9 +592,43 @@
 2020 : Jacques Goldstyn, Les étoiles, La Pastèque
 2021 : Valérie Blais, L'horoscope, Les 400 coups
 2022 : Nathalie Dion, Les baleines et nous, Les éditions de la bagnole
-2023 : Francis Léveillée pour Pleins gaz ! La petite histoire de la moto, éd. La Pastèque (sur un texte de Catherine David et Charles-Édouard Carrier)
-Catégorie Petit roman illustré
-1999 : Gérard DuBois, Le livre dans la nuit, La Courte Échelle
+2023 : Francis Léveillée pour Pleins gaz ! La petite histoire de la moto, éd. La Pastèque (sur un texte de Catherine David et Charles-Édouard Carrier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_illustration_jeunesse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_illustration_jeunesse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégories[4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Catégorie Petit roman illustré</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1999 : Gérard DuBois, Le livre dans la nuit, La Courte Échelle
 2000 : Yayo, Le délire de Somerset, Dominique et compagnie
 2001 : Pierre Pratt, David et le fantôme, Dominique et compagnie
 2002 : Marie-Claude Favreau, Marilou Polaire sur un arbre perché, La Courte Échelle et Sampar, Princesse cherche prince charmant, Michel Quintin
@@ -592,16 +645,50 @@
 2013 : Sophie Perreault-Allen, Le bon sommeil du roi, La Courte Échelle
 2014 : Jean Lacombe, Monsieur Roboto, Soulières éditeur
 2015 : Oussama Mezher, Les deux amoureux, Soulières éditeur
-2016 : non attribué[5]
+2016 : non attribué
 2017 : Mika, Chacun sa fenêtre pour rêver, Soulières éditeur
 2018 : Guillaume Perreault, Mammouth Rock, La Courte Échelle
 2019 : Julie Rocheleau, L'étrange fille aux chats, La Courte Échelle
 2020 : Valmo, Le grain de sable, Septentrion
 2021 : Ninon Pelletier, Les mannequins maléfiques, La Courte Échelle
 2022 : Ayumi Harada, Les carnets de novembre, La courte échelle
-2023 : Mélanie Baillairgé pour  Seuls (La courte échelle)
-Catégorie Relève (jusqu'en 2021)
-1999 : Luc Melanson, Hansel et Gretel, Les 400 coups
+2023 : Mélanie Baillairgé pour  Seuls (La courte échelle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_illustration_jeunesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_illustration_jeunesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégories[4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Catégorie Relève (jusqu'en 2021)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1999 : Luc Melanson, Hansel et Gretel, Les 400 coups
 2000 : Sampar, Où sont mes parents?, Pierre Tisseyre
 2001 : Céline Malépart, Pouf! Bébé-fantôme, Dominique et compagnie
 2002 : Bruce Roberts, Fidèles éléphants, Les 400 coups
@@ -611,10 +698,10 @@
 2006 : Catherine Lepage, Pétunia, princesse des pets, Dominique et Compagnie
 2007 : Manon Gauthier, Ma maman du photomaton, Les 400 coups
 2008 : Julie Cossette, Petits Monstres - Les mousses, Dominique et compagnie
-2009 : non attribué[6]
+2009 : non attribué
 2010 : Isabelle Malenfant, L'étrangère, Les 400 coups
 2011 : Valérie Boivin, Le marchand de bêtises, La Courte Échelle
-2012 : non attribué[7]
+2012 : non attribué
 2013 : Jacinthe Chevalier, Aujourd'hui, le ciel, Isatis
 2014 : Mathieu Potvin, Ce livre n'est pas un journal intime, Druide
 2015 : Annie Carbonneau, La princesse Beau Dodo, La Bagnole
